--- a/owlcms/src/main/resources/agegroups/DE-AgeGroups_de.xlsx
+++ b/owlcms/src/main/resources/agegroups/DE-AgeGroups_de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D855F75-7662-4344-95FE-E199FC712DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20212F35-6FB7-42F6-B5DD-86C048F29C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1335" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="2895" windowWidth="20715" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BW vs AgeGroups" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="78">
   <si>
     <t>code</t>
   </si>
@@ -192,9 +192,6 @@
     <t>F80</t>
   </si>
   <si>
-    <t>F70+</t>
-  </si>
-  <si>
     <t>YTH</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>M75</t>
   </si>
   <si>
-    <t>M80+</t>
-  </si>
-  <si>
     <t>M56</t>
   </si>
   <si>
@@ -265,6 +259,15 @@
   </si>
   <si>
     <t>F69</t>
+  </si>
+  <si>
+    <t>championship Name</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>M80</t>
   </si>
 </sst>
 </file>
@@ -684,20 +687,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -734,7 +739,9 @@
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
@@ -772,7 +779,9 @@
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
@@ -794,19 +803,19 @@
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>29</v>
@@ -822,7 +831,9 @@
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
@@ -844,19 +855,19 @@
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>29</v>
@@ -872,7 +883,9 @@
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
@@ -892,22 +905,22 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>50</v>
@@ -924,7 +937,9 @@
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
@@ -982,7 +997,9 @@
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1040,7 +1057,9 @@
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1098,7 +1117,9 @@
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1156,7 +1177,9 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1214,7 +1237,9 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1272,7 +1297,9 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1330,7 +1357,9 @@
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1388,7 +1417,9 @@
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1446,7 +1477,9 @@
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1504,7 +1537,9 @@
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1562,7 +1597,9 @@
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1620,7 +1657,9 @@
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1678,7 +1717,9 @@
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
@@ -1689,7 +1730,7 @@
         <v>80</v>
       </c>
       <c r="F19" s="3">
-        <v>999</v>
+        <v>84</v>
       </c>
       <c r="G19" s="5" t="b">
         <f>FALSE()</f>
@@ -1734,9 +1775,11 @@
     </row>
     <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1744,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F20" s="3">
         <v>999</v>
@@ -1792,11 +1835,13 @@
     </row>
     <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
@@ -1848,11 +1893,13 @@
     </row>
     <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
@@ -1906,9 +1953,11 @@
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
@@ -1960,11 +2009,13 @@
     </row>
     <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
@@ -2022,7 +2073,9 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2060,7 +2113,9 @@
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2087,16 +2142,16 @@
         <v>5</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>16</v>
@@ -2112,7 +2167,9 @@
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2137,22 +2194,22 @@
         <v>5</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>16</v>
@@ -2166,7 +2223,9 @@
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
@@ -2187,25 +2246,25 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>16</v>
@@ -2218,7 +2277,9 @@
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2335,9 @@
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2330,7 +2393,9 @@
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2384,9 +2449,11 @@
     </row>
     <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2442,7 +2509,9 @@
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2567,9 @@
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2554,7 +2625,9 @@
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
@@ -2608,9 +2681,11 @@
     </row>
     <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2666,7 +2741,9 @@
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2720,9 +2797,11 @@
     </row>
     <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
@@ -2776,9 +2855,11 @@
     </row>
     <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
       </c>
@@ -2832,9 +2913,11 @@
     </row>
     <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
@@ -2888,9 +2971,11 @@
     </row>
     <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
       </c>
@@ -2944,9 +3029,11 @@
     </row>
     <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
@@ -2957,7 +3044,7 @@
         <v>80</v>
       </c>
       <c r="F42" s="3">
-        <v>999</v>
+        <v>84</v>
       </c>
       <c r="G42" s="5" t="b">
         <f>FALSE()</f>
@@ -3000,20 +3087,22 @@
     </row>
     <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F43" s="3">
-        <v>17</v>
+        <v>999</v>
       </c>
       <c r="G43" s="5" t="b">
         <f>FALSE()</f>
@@ -3022,9 +3111,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
         <v>7</v>
       </c>
@@ -3050,26 +3137,30 @@
         <v>14</v>
       </c>
       <c r="T43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F44" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G44" s="5" t="b">
         <f>FALSE()</f>
@@ -3078,7 +3169,9 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="L44" s="1" t="s">
         <v>7</v>
       </c>
@@ -3104,19 +3197,19 @@
         <v>14</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U44" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -3125,7 +3218,7 @@
         <v>15</v>
       </c>
       <c r="F45" s="3">
-        <v>999</v>
+        <v>20</v>
       </c>
       <c r="G45" s="5" t="b">
         <f>FALSE()</f>
@@ -3168,65 +3261,125 @@
     </row>
     <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F46" s="3">
         <v>999</v>
       </c>
       <c r="G46" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>999</v>
+      </c>
+      <c r="G47" s="5" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="T47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="U47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
